--- a/task.xlsx
+++ b/task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\Capston_API_Team11-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\ex_capstone2-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Nguyễn Thế Hiển</t>
+  </si>
+  <si>
+    <t>Delete sai vị trí, chưa có edit và update</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
   <dimension ref="A1:J1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -601,7 +604,7 @@
     <col min="6" max="7" width="7.875" customWidth="1"/>
     <col min="8" max="8" width="5.375" customWidth="1"/>
     <col min="9" max="9" width="17.375" customWidth="1"/>
-    <col min="10" max="10" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1">
@@ -879,12 +882,14 @@
         <v>45226</v>
       </c>
       <c r="H11" s="20">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="23.45" customHeight="1">
       <c r="A12" s="14" t="s">
